--- a/docs/rsnn/docs.xlsx
+++ b/docs/rsnn/docs.xlsx
@@ -11,7 +11,7 @@
     <sheet name="docs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">docs!$D$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">docs!$D$1:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -38,37 +38,25 @@
     <t xml:space="preserve">locked</t>
   </si>
   <si>
-    <t xml:space="preserve">nurb-discussion-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurobiology Discussion 1</t>
+    <t xml:space="preserve">visual-coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Visual Coding</t>
   </si>
   <si>
     <t xml:space="preserve">Spiking Networks</t>
   </si>
   <si>
-    <t xml:space="preserve">basic-visual-coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Visual Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nurb-discussion-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurobiology Discussion 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neurobio-final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurobiology Exam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroelectronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neuroelectronics</t>
+    <t xml:space="preserve">rsnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stochastic Computation in Recurrent Networks of Spiking Neurons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsnn-slides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stochastic Computation in Recurrent Networks of Spiking Neurons (Slides)</t>
   </si>
 </sst>
 </file>
@@ -79,7 +67,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -114,13 +102,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -167,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,10 +166,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,16 +186,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.36"/>
   </cols>
@@ -253,10 +230,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -268,46 +245,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/docs/rsnn/docs.xlsx
+++ b/docs/rsnn/docs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -57,6 +57,60 @@
   </si>
   <si>
     <t xml:space="preserve">Stochastic Computation in Recurrent Networks of Spiking Neurons (Slides)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l18</t>
   </si>
 </sst>
 </file>
@@ -186,13 +240,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67.58"/>
@@ -255,6 +309,276 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/docs/rsnn/docs.xlsx
+++ b/docs/rsnn/docs.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">Spiking Networks</t>
   </si>
   <si>
-    <t xml:space="preserve">rsnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS Thesis</t>
+    <t xml:space="preserve">Rsnn-slides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSNN Slides</t>
   </si>
 </sst>
 </file>
@@ -179,13 +179,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="1" width="10.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="1" width="8.36"/>

--- a/docs/rsnn/docs.xlsx
+++ b/docs/rsnn/docs.xlsx
@@ -11,7 +11,7 @@
     <sheet name="docs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">docs!$D$1:$D$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">docs!$D$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -38,19 +38,13 @@
     <t xml:space="preserve">locked</t>
   </si>
   <si>
-    <t xml:space="preserve">visual-coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Visual Coding</t>
+    <t xml:space="preserve">rsnn-slides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSNN Slides</t>
   </si>
   <si>
     <t xml:space="preserve">Spiking Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rsnn-slides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSNN Slides</t>
   </si>
 </sst>
 </file>
@@ -176,7 +170,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
@@ -220,21 +214,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/docs/rsnn/docs.xlsx
+++ b/docs/rsnn/docs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t xml:space="preserve">Spiking Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gibbs-bm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibbs sampling and the Boltzmann machines</t>
   </si>
 </sst>
 </file>
@@ -155,34 +161,34 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="1" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="1" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="4" style="1" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -212,6 +218,17 @@
       <c r="D2" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/docs/rsnn/docs.xlsx
+++ b/docs/rsnn/docs.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">Spiking Networks</t>
   </si>
   <si>
-    <t xml:space="preserve">gibbs-bm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibbs sampling and the Boltzmann machines</t>
+    <t xml:space="preserve">mcmc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCMC and Gibbs Sampling</t>
   </si>
 </sst>
 </file>
@@ -179,7 +179,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/rsnn/docs.xlsx
+++ b/docs/rsnn/docs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t xml:space="preserve">MCMC and Gibbs Sampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kramers-moyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kramers-Moyal Expansion</t>
   </si>
 </sst>
 </file>
@@ -161,34 +167,34 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="4" style="1" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="1" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="1" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -229,6 +235,25 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
